--- a/users.xlsx
+++ b/users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\shopping-online-master\extra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\shopping-online-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CB2006-9174-45F9-98D6-E93E502D39AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF8F287-847C-48AD-BAFE-5E880C7A2769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\shopping-online-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF8F287-847C-48AD-BAFE-5E880C7A2769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A6BC2C-8536-4F8D-BF60-46926F1C3FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/users.xlsx
+++ b/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\shopping-online-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A6BC2C-8536-4F8D-BF60-46926F1C3FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716EF97A-71F1-4766-AA02-B3536F790306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVIR\Desktop\Project4\shopping-online-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Projects\Project4\shopping-online-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716EF97A-71F1-4766-AA02-B3536F790306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033A7212-54C3-485C-B58E-84D8961C6892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
